--- a/com.Ebay/src/test/resources/EbayTestCases.xlsx
+++ b/com.Ebay/src/test/resources/EbayTestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabreenmostafa/IdeaProjects/BootCampTeam2/com.Ebay/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020C1A89-299B-0F4D-95D7-2124758CA7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B248B16A-ADDA-B04F-B3A0-F5369B5134EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="580" windowWidth="27420" windowHeight="16940" activeTab="5" xr2:uid="{C6236C0E-26A7-4347-8EC0-A7FCD6F658A8}"/>
+    <workbookView xWindow="1380" yWindow="500" windowWidth="27420" windowHeight="16940" activeTab="9" xr2:uid="{C6236C0E-26A7-4347-8EC0-A7FCD6F658A8}"/>
   </bookViews>
   <sheets>
     <sheet name="EbayT1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="EbayT4" sheetId="4" r:id="rId4"/>
     <sheet name="EbayT6" sheetId="5" r:id="rId5"/>
     <sheet name="EbayT8" sheetId="6" r:id="rId6"/>
+    <sheet name="EbayT11" sheetId="7" r:id="rId7"/>
+    <sheet name="EbayT12" sheetId="8" r:id="rId8"/>
+    <sheet name="EbayT14" sheetId="9" r:id="rId9"/>
+    <sheet name="EbayT15" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="457">
   <si>
     <t>American Girl</t>
   </si>
@@ -1020,6 +1024,396 @@
   </si>
   <si>
     <t>Teams</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/5031837736</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/3011383882</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/12032148815</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/21006993940</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/26036286731</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/25039337749</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/11011031847</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/26030980890</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/5034776624</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/11019545231</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/3034353723</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/18037072107</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/2255974645</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/4036281040</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/13037769960</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/27034859376</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/10031592406</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/7039233198</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/4031472895</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/23022470905</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/10025457560</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/14033908235</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/25039776656</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/p/15036375994</t>
+  </si>
+  <si>
+    <t>21st Century Toys</t>
+  </si>
+  <si>
+    <t>Disney</t>
+  </si>
+  <si>
+    <t>MEGA</t>
+  </si>
+  <si>
+    <t>STIKFAS</t>
+  </si>
+  <si>
+    <t>Acamas Toys</t>
+  </si>
+  <si>
+    <t>Dusty Trail</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Sanrio</t>
+  </si>
+  <si>
+    <t>Accoutrements</t>
+  </si>
+  <si>
+    <t>Figures Toy Company</t>
+  </si>
+  <si>
+    <t>Mattel</t>
+  </si>
+  <si>
+    <t>Secret Base</t>
+  </si>
+  <si>
+    <t>Art Asylum</t>
+  </si>
+  <si>
+    <t>Funko</t>
+  </si>
+  <si>
+    <t>McDonald's</t>
+  </si>
+  <si>
+    <t>Sideshow Collectibles</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Gentle Giant</t>
+  </si>
+  <si>
+    <t>McFarlane Toys</t>
+  </si>
+  <si>
+    <t>Strangeco</t>
+  </si>
+  <si>
+    <t>BANPRESTO</t>
+  </si>
+  <si>
+    <t>Hasbro</t>
+  </si>
+  <si>
+    <t>Medicom Toy</t>
+  </si>
+  <si>
+    <t>Super7</t>
+  </si>
+  <si>
+    <t>BE@RBRICK</t>
+  </si>
+  <si>
+    <t>Hasbro Mighty Muggs</t>
+  </si>
+  <si>
+    <t>Mezco</t>
+  </si>
+  <si>
+    <t>TOMY</t>
+  </si>
+  <si>
+    <t>Bandai</t>
+  </si>
+  <si>
+    <t>Homies</t>
+  </si>
+  <si>
+    <t>Mighty Jaxx</t>
+  </si>
+  <si>
+    <t>Takara</t>
+  </si>
+  <si>
+    <t>Bif Bang Pow</t>
+  </si>
+  <si>
+    <t>Hoppin Hydros</t>
+  </si>
+  <si>
+    <t>Mindstyle</t>
+  </si>
+  <si>
+    <t>The Loyal Subjects</t>
+  </si>
+  <si>
+    <t>Blue Box</t>
+  </si>
+  <si>
+    <t>Hot Toys</t>
+  </si>
+  <si>
+    <t>Minimates</t>
+  </si>
+  <si>
+    <t>ThreeA</t>
+  </si>
+  <si>
+    <t>Capcom</t>
+  </si>
+  <si>
+    <t>Hot Wheels</t>
+  </si>
+  <si>
+    <t>Momiji</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>How2work</t>
+  </si>
+  <si>
+    <t>NECA</t>
+  </si>
+  <si>
+    <t>Toy2R</t>
+  </si>
+  <si>
+    <t>Chessex</t>
+  </si>
+  <si>
+    <t>JAKKS Pacific</t>
+  </si>
+  <si>
+    <t>Nickelodeon</t>
+  </si>
+  <si>
+    <t>ToyBiz</t>
+  </si>
+  <si>
+    <t>Coarsetoys</t>
+  </si>
+  <si>
+    <t>Jazwares</t>
+  </si>
+  <si>
+    <t>Onell Design</t>
+  </si>
+  <si>
+    <t>Toynami</t>
+  </si>
+  <si>
+    <t>Cryptozoic</t>
+  </si>
+  <si>
+    <t>KOTOBUKIYA</t>
+  </si>
+  <si>
+    <t>POPY</t>
+  </si>
+  <si>
+    <t>Ty</t>
+  </si>
+  <si>
+    <t>Cryptozoic Entertainment</t>
+  </si>
+  <si>
+    <t>Kaiyodo</t>
+  </si>
+  <si>
+    <t>Pete Fowler</t>
+  </si>
+  <si>
+    <t>Unbox Industries</t>
+  </si>
+  <si>
+    <t>DC Comics</t>
+  </si>
+  <si>
+    <t>Kenner</t>
+  </si>
+  <si>
+    <t>Playmates Toys</t>
+  </si>
+  <si>
+    <t>Unbranded</t>
+  </si>
+  <si>
+    <t>DC Direct</t>
+  </si>
+  <si>
+    <t>Kennyswork</t>
+  </si>
+  <si>
+    <t>Popaganda</t>
+  </si>
+  <si>
+    <t>kaws</t>
+  </si>
+  <si>
+    <t>Dark Horse</t>
+  </si>
+  <si>
+    <t>Kidrobot</t>
+  </si>
+  <si>
+    <t>Popobe</t>
+  </si>
+  <si>
+    <t>tokidoki</t>
+  </si>
+  <si>
+    <t>Dead Zebra, Inc</t>
+  </si>
+  <si>
+    <t>Konatsuya</t>
+  </si>
+  <si>
+    <t>Ron English</t>
+  </si>
+  <si>
+    <t>Diamond Select</t>
+  </si>
+  <si>
+    <t>MEDICOM</t>
+  </si>
+  <si>
+    <t>SEGA</t>
+  </si>
+  <si>
+    <t>brands</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/usr/scentlessfern881</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/usr/musical-vinyls</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/usr/billybobjimjack</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/usr/kirkdickinson</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/usr/nudemodel2000</t>
+  </si>
+  <si>
+    <t>Denmark Pottery In Royal Copenhagen China &amp; Dinnerware</t>
+  </si>
+  <si>
+    <t>Royal Copenhagen Blue Fluted Full</t>
+  </si>
+  <si>
+    <t>Royal Copenhagen Half Lace</t>
+  </si>
+  <si>
+    <t>Royal Copenhagen Saxon Flower</t>
+  </si>
+  <si>
+    <t>Nils Thorsson Indiana Royal Copenhagen China &amp; Dinnerware</t>
+  </si>
+  <si>
+    <t>Royal Copenhagen Candlesticks</t>
+  </si>
+  <si>
+    <t>Royal Copenhagen Henriette</t>
+  </si>
+  <si>
+    <t>Royal Copenhagen Teapot</t>
+  </si>
+  <si>
+    <t>Royal Copenhagen Angel In Royal Copenhagen China &amp; Dinnerware</t>
+  </si>
+  <si>
+    <t>Royal Copenhagen Crackle In Royal Copenhagen China &amp; Dinnerware</t>
+  </si>
+  <si>
+    <t>Royal Copenhagen Jus</t>
+  </si>
+  <si>
+    <t>Royal Copenhagen Tranquebar</t>
+  </si>
+  <si>
+    <t>Royal Copenhagen BELL Indiana Royal Copenhagen China &amp; Dinnerware</t>
+  </si>
+  <si>
+    <t>royal copenhagen dish</t>
+  </si>
+  <si>
+    <t>royal copenhagen ornament</t>
+  </si>
+  <si>
+    <t>Royal Copenhagen Bird In Royal Copenhagen China &amp; Dinnerware</t>
+  </si>
+  <si>
+    <t>Royal Copenhagen Dog Indiana Royal Copenhagen China &amp; Dinnerware</t>
+  </si>
+  <si>
+    <t>Royal Copenhagen Salto In Royal Copenhagen China &amp; Dinnerware</t>
   </si>
 </sst>
 </file>
@@ -1487,6 +1881,111 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E50DCDC-E6B7-6F4A-8659-D89541B9336A}">
+  <dimension ref="A2:A19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3729F85-877F-3047-A755-F4406C5FE838}">
   <dimension ref="A1:A49"/>
@@ -2046,7 +2545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1382C514-2DA6-5A4D-8D25-C92E16510EBF}">
   <dimension ref="A1:A293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3520,4 +4019,607 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FB71BA-ECF5-CE44-88F7-7672971F379A}">
+  <dimension ref="A2:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151AC0AF-AFDD-5D40-A8D6-8BC34920E212}">
+  <dimension ref="A1:A83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B509975-9475-D647-996A-BB2115C75307}">
+  <dimension ref="A2:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>